--- a/report/time-size-geolif1.xlsx
+++ b/report/time-size-geolif1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="time-size-geolif1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1071,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1085,7 +1088,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>5000</v>
       </c>
       <c r="B2">
@@ -1105,7 +1108,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3">
         <v>1361</v>
       </c>
@@ -1123,7 +1126,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="11"/>
       <c r="B4">
         <v>1314</v>
       </c>
@@ -1141,7 +1144,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="11"/>
       <c r="B5">
         <v>2225</v>
       </c>
@@ -1159,7 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
+      <c r="A6" s="11"/>
       <c r="B6">
         <v>2371</v>
       </c>
@@ -1176,469 +1179,582 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <f>STDEVP(B2:B6)</f>
+        <v>1904.9941312245558</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="0">STDEVP(C2:C6)</f>
+        <v>1648.4530202586909</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3235.8148525525994</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>53.050918936433135</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>34.085774158730793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
         <v>10000</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>9132</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>28178</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>80130</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>482</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10">
         <v>6374</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>31260</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>60383</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>460</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11">
         <v>8755</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>28891</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>79752</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>455</v>
-      </c>
-      <c r="F10">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11">
-        <v>4964</v>
-      </c>
-      <c r="C11">
-        <v>26802</v>
-      </c>
-      <c r="D11">
-        <v>79211</v>
-      </c>
-      <c r="E11">
-        <v>453</v>
       </c>
       <c r="F11">
         <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="11"/>
       <c r="B12">
-        <v>4900</v>
+        <v>4964</v>
       </c>
       <c r="C12">
-        <v>26542</v>
+        <v>26802</v>
       </c>
       <c r="D12">
-        <v>79287</v>
+        <v>79211</v>
       </c>
       <c r="E12">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F12">
         <v>385</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13">
+        <v>4900</v>
+      </c>
+      <c r="C13">
+        <v>26542</v>
+      </c>
+      <c r="D13">
+        <v>79287</v>
+      </c>
+      <c r="E13">
+        <v>452</v>
+      </c>
+      <c r="F13">
+        <v>385</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <f>_xlfn.STDEV.P(B9:B13)</f>
+        <v>1812.1531944071396</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:F14" si="1">_xlfn.STDEV.P(C9:C13)</f>
+        <v>1700.2556984171526</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>7691.995179405666</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>11.146299834474219</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.9152822909778031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
         <v>15000</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>21846</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>82376</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>183483</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>665</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>807</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17">
         <v>16728</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>41648</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>108345</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>651</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>629</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18">
         <v>16373</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>41723</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>108503</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>653</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19">
         <v>17124</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>42593</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>108448</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>654</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20">
         <v>16372</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>41771</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>108452</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>654</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>20000</v>
-      </c>
-      <c r="B20">
-        <v>39522</v>
-      </c>
-      <c r="C20">
-        <v>105862</v>
-      </c>
-      <c r="D20">
-        <v>321094</v>
-      </c>
-      <c r="E20">
-        <v>907</v>
-      </c>
-      <c r="F20">
-        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21">
+        <f>_xlfn.STDEV.P(B16:B20)</f>
+        <v>2097.1284748436374</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="2">_xlfn.STDEV.P(C16:C20)</f>
+        <v>16180.52925463194</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>30018.443859733969</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>4.9234134500364686</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>74.624392794849598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>20000</v>
+      </c>
+      <c r="B23">
+        <v>39522</v>
+      </c>
+      <c r="C23">
+        <v>105862</v>
+      </c>
+      <c r="D23">
+        <v>321094</v>
+      </c>
+      <c r="E23">
+        <v>907</v>
+      </c>
+      <c r="F23">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24">
         <v>24357</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>74327</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>207901</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>899</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>814</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25">
         <v>23593</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>74279</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>206362</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>897</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26">
         <v>24192</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>74034</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>206322</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>890</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>814</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27">
         <v>23453</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>73959</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>206218</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>892</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="B26">
-        <v>50769</v>
-      </c>
-      <c r="C26">
-        <v>167837</v>
-      </c>
-      <c r="D26">
-        <v>501310</v>
-      </c>
-      <c r="E26">
-        <v>1033</v>
-      </c>
-      <c r="F26">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27">
-        <v>50792</v>
-      </c>
-      <c r="C27">
-        <v>116307</v>
-      </c>
-      <c r="D27">
-        <v>299288</v>
-      </c>
-      <c r="E27">
-        <v>1022</v>
-      </c>
-      <c r="F27">
-        <v>1011</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28">
+        <f>_xlfn.STDEV.P(B23:B27)</f>
+        <v>6258.7046135761993</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:F28" si="3">_xlfn.STDEV.P(C23:C27)</f>
+        <v>12685.671813506766</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>45761.521756165406</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>5.9665735560705189</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>3.7094473981982818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>25000</v>
+      </c>
+      <c r="B30">
+        <v>50769</v>
+      </c>
+      <c r="C30">
+        <v>167837</v>
+      </c>
+      <c r="D30">
+        <v>501310</v>
+      </c>
+      <c r="E30">
+        <v>1033</v>
+      </c>
+      <c r="F30">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31">
+        <v>50792</v>
+      </c>
+      <c r="C31">
+        <v>116307</v>
+      </c>
+      <c r="D31">
+        <v>299288</v>
+      </c>
+      <c r="E31">
+        <v>1022</v>
+      </c>
+      <c r="F31">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32">
         <v>50494</v>
       </c>
-      <c r="C28">
+      <c r="C32">
         <v>116096</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>298874</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>1018</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <v>1017</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33">
         <v>50711</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>116804</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>300404</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>1023</v>
       </c>
-      <c r="F29">
+      <c r="F33">
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34">
         <v>47474</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <v>116152</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>298648</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <v>1023</v>
       </c>
-      <c r="F30">
+      <c r="F34">
         <v>1001</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <f>_xlfn.STDEV.P(B30:B34)</f>
+        <v>1291.3046116234543</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F35" si="4">_xlfn.STDEV.P(C30:C34)</f>
+        <v>20600.411019200565</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>80804.859166760507</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>4.9558046773455473</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>6.7646138101151054</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
         <v>2745</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C40" s="3">
         <v>8280</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D40" s="3">
         <v>19346</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E40" s="3">
         <v>267</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F40" s="4">
         <v>241</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="5">
         <v>6825</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C41" s="6">
         <v>28334</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D41" s="6">
         <v>75752</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E41" s="6">
         <v>460</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F41" s="7">
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="5">
         <v>17688</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C42" s="6">
         <v>50022</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D42" s="6">
         <v>123446</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E42" s="6">
         <v>655</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F42" s="7">
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="5">
         <v>27023</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C43" s="6">
         <v>80492</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D43" s="6">
         <v>229579</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E43" s="6">
         <v>897</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F43" s="7">
         <v>817</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="8">
         <v>50048</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C44" s="9">
         <v>126639</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D44" s="9">
         <v>339704</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E44" s="9">
         <v>1023</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F44" s="10">
         <v>1007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
